--- a/CSSP Tools-Comments and Suggestions.xlsx
+++ b/CSSP Tools-Comments and Suggestions.xlsx
@@ -2449,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2513,7 +2513,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -2735,7 +2735,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -2867,7 +2867,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>4</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="30">
         <v>1</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>4</v>
       </c>
@@ -3238,7 +3238,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/CSSP Tools-Comments and Suggestions.xlsx
+++ b/CSSP Tools-Comments and Suggestions.xlsx
@@ -2449,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2513,7 +2513,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -2735,7 +2735,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -2867,7 +2867,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>4</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="30">
         <v>1</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>4</v>
       </c>
@@ -3238,7 +3238,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/CSSP Tools-Comments and Suggestions.xlsx
+++ b/CSSP Tools-Comments and Suggestions.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="369">
   <si>
     <t>Item</t>
   </si>
@@ -1267,12 +1267,27 @@
   <si>
     <t>Would it be possible to have the option to select the desired N from the MWQM Sites tab prior to selecting the analysis button? Currently, if you select 10, 15, 20, 25, 30, 35, 40 on the sites tab, it is only applicable to the sites page. If you select "15" and proceed to the analysis page, N=30 still defaults so you have to wait for that to load and then select N=15 and wait for that to load. This tend to get frustrating when working with larger subsectors.</t>
   </si>
+  <si>
+    <t>Was not able to recreate error</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be done when all the data is entered in all province. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles tried but the whole cell becomes red and it looks worst.  </t>
+  </si>
+  <si>
+    <t>Yes, on top of Wet-Dry-All it now gives number or runs used, do we want more info</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1325,6 +1340,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1392,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1476,6 +1497,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,7 +1515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1783,7 +1807,7 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" style="6" customWidth="1"/>
@@ -2154,7 +2178,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -2449,11 +2473,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="22" style="6" customWidth="1"/>
@@ -2510,7 +2534,9 @@
       <c r="F2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,7 +2558,9 @@
       <c r="F3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -2620,7 +2648,9 @@
       <c r="F7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>112</v>
       </c>
@@ -2666,7 +2696,9 @@
       <c r="F9" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -2688,8 +2720,12 @@
       <c r="F10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
@@ -3040,7 +3076,9 @@
         <v>96</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="H27" s="3" t="s">
         <v>182</v>
       </c>
@@ -3104,7 +3142,9 @@
         <v>205</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="33" t="s">
+        <v>368</v>
+      </c>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -3241,7 +3281,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.88671875" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
@@ -3522,7 +3562,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" customWidth="1"/>
@@ -3895,7 +3935,7 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.88671875" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
